--- a/브랜딩_경기천년_G미디어파사드_B55.xlsx
+++ b/브랜딩_경기천년_G미디어파사드_B55.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-135" windowWidth="27210" windowHeight="11175" activeTab="2"/>
+    <workbookView xWindow="29790" yWindow="210" windowWidth="27210" windowHeight="11175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Extensions" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$H$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AV$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AW$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="896">
   <si>
     <t>Name</t>
   </si>
@@ -6144,6 +6144,10 @@
   </si>
   <si>
     <t>2018.10.02</t>
+  </si>
+  <si>
+    <t>주제어(기타)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6989,8 +6993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11597,10 +11601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P81"/>
+    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11616,11 +11620,11 @@
     <col min="12" max="16" width="17.85546875" style="15" customWidth="1"/>
     <col min="17" max="17" width="18" style="15" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="15" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="35" style="23" customWidth="1"/>
+    <col min="19" max="20" width="24.140625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="35" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1">
+    <row r="1" spans="1:21" s="12" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -11679,10 +11683,13 @@
         <v>432</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" collapsed="1">
+    <row r="2" spans="1:21" collapsed="1">
       <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
@@ -11737,11 +11744,12 @@
       <c r="S2" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" collapsed="1">
+    <row r="3" spans="1:21" collapsed="1">
       <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
@@ -11796,11 +11804,12 @@
       <c r="S3" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:20" collapsed="1">
+    <row r="4" spans="1:21" collapsed="1">
       <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
@@ -11855,11 +11864,12 @@
       <c r="S4" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" collapsed="1">
+    <row r="5" spans="1:21" collapsed="1">
       <c r="A5" s="20" t="s">
         <v>28</v>
       </c>
@@ -11914,11 +11924,12 @@
       <c r="S5" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" collapsed="1">
+    <row r="6" spans="1:21" collapsed="1">
       <c r="A6" s="20" t="s">
         <v>30</v>
       </c>
@@ -11973,11 +11984,12 @@
       <c r="S6" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" collapsed="1">
+    <row r="7" spans="1:21" collapsed="1">
       <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
@@ -12032,11 +12044,12 @@
       <c r="S7" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="22"/>
+      <c r="U7" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:20" collapsed="1">
+    <row r="8" spans="1:21" collapsed="1">
       <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
@@ -12091,11 +12104,12 @@
       <c r="S8" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" collapsed="1">
+    <row r="9" spans="1:21" collapsed="1">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -12150,11 +12164,12 @@
       <c r="S9" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="22"/>
+      <c r="U9" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:20" collapsed="1">
+    <row r="10" spans="1:21" collapsed="1">
       <c r="A10" s="20" t="s">
         <v>48</v>
       </c>
@@ -12209,11 +12224,12 @@
       <c r="S10" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:20" collapsed="1">
+    <row r="11" spans="1:21" collapsed="1">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -12268,11 +12284,12 @@
       <c r="S11" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="T11" s="22"/>
+      <c r="U11" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20" collapsed="1">
+    <row r="12" spans="1:21" collapsed="1">
       <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
@@ -12327,11 +12344,12 @@
       <c r="S12" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:20" collapsed="1">
+    <row r="13" spans="1:21" collapsed="1">
       <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
@@ -12386,11 +12404,12 @@
       <c r="S13" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="22"/>
+      <c r="U13" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" collapsed="1">
+    <row r="14" spans="1:21" collapsed="1">
       <c r="A14" s="20" t="s">
         <v>56</v>
       </c>
@@ -12445,11 +12464,12 @@
       <c r="S14" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:20" collapsed="1">
+    <row r="15" spans="1:21" collapsed="1">
       <c r="A15" s="20" t="s">
         <v>58</v>
       </c>
@@ -12504,11 +12524,12 @@
       <c r="S15" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="T15" s="22"/>
+      <c r="U15" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:20" collapsed="1">
+    <row r="16" spans="1:21" collapsed="1">
       <c r="A16" s="20" t="s">
         <v>60</v>
       </c>
@@ -12563,11 +12584,12 @@
       <c r="S16" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:20" collapsed="1">
+    <row r="17" spans="1:21" collapsed="1">
       <c r="A17" s="20" t="s">
         <v>62</v>
       </c>
@@ -12622,11 +12644,12 @@
       <c r="S17" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="22"/>
+      <c r="U17" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:20" collapsed="1">
+    <row r="18" spans="1:21" collapsed="1">
       <c r="A18" s="20" t="s">
         <v>88</v>
       </c>
@@ -12684,11 +12707,12 @@
       <c r="S18" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="T18" s="22"/>
+      <c r="U18" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:20" collapsed="1">
+    <row r="19" spans="1:21" collapsed="1">
       <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
@@ -12746,11 +12770,12 @@
       <c r="S19" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:20" collapsed="1">
+    <row r="20" spans="1:21" collapsed="1">
       <c r="A20" s="20" t="s">
         <v>92</v>
       </c>
@@ -12808,11 +12833,12 @@
       <c r="S20" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:20" collapsed="1">
+    <row r="21" spans="1:21" collapsed="1">
       <c r="A21" s="20" t="s">
         <v>96</v>
       </c>
@@ -12867,11 +12893,12 @@
       <c r="S21" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:20" collapsed="1">
+    <row r="22" spans="1:21" collapsed="1">
       <c r="A22" s="20" t="s">
         <v>98</v>
       </c>
@@ -12926,11 +12953,12 @@
       <c r="S22" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:20" collapsed="1">
+    <row r="23" spans="1:21" collapsed="1">
       <c r="A23" s="20" t="s">
         <v>100</v>
       </c>
@@ -12985,11 +13013,12 @@
       <c r="S23" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="22"/>
+      <c r="U23" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:20" collapsed="1">
+    <row r="24" spans="1:21" collapsed="1">
       <c r="A24" s="20" t="s">
         <v>102</v>
       </c>
@@ -13044,11 +13073,12 @@
       <c r="S24" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:20" collapsed="1">
+    <row r="25" spans="1:21" collapsed="1">
       <c r="A25" s="20" t="s">
         <v>103</v>
       </c>
@@ -13106,11 +13136,12 @@
       <c r="S25" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:20" collapsed="1">
+    <row r="26" spans="1:21" collapsed="1">
       <c r="A26" s="20" t="s">
         <v>105</v>
       </c>
@@ -13168,11 +13199,12 @@
       <c r="S26" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:20" collapsed="1">
+    <row r="27" spans="1:21" collapsed="1">
       <c r="A27" s="20" t="s">
         <v>107</v>
       </c>
@@ -13230,11 +13262,12 @@
       <c r="S27" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T27" s="23" t="s">
+      <c r="T27" s="22"/>
+      <c r="U27" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:20" collapsed="1">
+    <row r="28" spans="1:21" collapsed="1">
       <c r="A28" s="20" t="s">
         <v>109</v>
       </c>
@@ -13292,11 +13325,12 @@
       <c r="S28" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="22"/>
+      <c r="U28" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:20" collapsed="1">
+    <row r="29" spans="1:21" collapsed="1">
       <c r="A29" s="20" t="s">
         <v>110</v>
       </c>
@@ -13354,11 +13388,12 @@
       <c r="S29" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="T29" s="22"/>
+      <c r="U29" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:20" collapsed="1">
+    <row r="30" spans="1:21" collapsed="1">
       <c r="A30" s="20" t="s">
         <v>112</v>
       </c>
@@ -13416,11 +13451,12 @@
       <c r="S30" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="22"/>
+      <c r="U30" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:20" collapsed="1">
+    <row r="31" spans="1:21" collapsed="1">
       <c r="A31" s="20" t="s">
         <v>114</v>
       </c>
@@ -13478,11 +13514,12 @@
       <c r="S31" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T31" s="23" t="s">
+      <c r="T31" s="22"/>
+      <c r="U31" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:20" collapsed="1">
+    <row r="32" spans="1:21" collapsed="1">
       <c r="A32" s="20" t="s">
         <v>116</v>
       </c>
@@ -13537,11 +13574,12 @@
       <c r="S32" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="T32" s="22"/>
+      <c r="U32" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:20" collapsed="1">
+    <row r="33" spans="1:21" collapsed="1">
       <c r="A33" s="20" t="s">
         <v>118</v>
       </c>
@@ -13596,11 +13634,12 @@
       <c r="S33" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="T33" s="22"/>
+      <c r="U33" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:20" collapsed="1">
+    <row r="34" spans="1:21" collapsed="1">
       <c r="A34" s="20" t="s">
         <v>120</v>
       </c>
@@ -13655,11 +13694,12 @@
       <c r="S34" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T34" s="23" t="s">
+      <c r="T34" s="22"/>
+      <c r="U34" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:20" collapsed="1">
+    <row r="35" spans="1:21" collapsed="1">
       <c r="A35" s="20" t="s">
         <v>122</v>
       </c>
@@ -13714,11 +13754,12 @@
       <c r="S35" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T35" s="23" t="s">
+      <c r="T35" s="22"/>
+      <c r="U35" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:20" collapsed="1">
+    <row r="36" spans="1:21" collapsed="1">
       <c r="A36" s="20" t="s">
         <v>124</v>
       </c>
@@ -13773,11 +13814,12 @@
       <c r="S36" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T36" s="22"/>
+      <c r="U36" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:20" collapsed="1">
+    <row r="37" spans="1:21" collapsed="1">
       <c r="A37" s="20" t="s">
         <v>126</v>
       </c>
@@ -13832,11 +13874,12 @@
       <c r="S37" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22"/>
+      <c r="U37" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:20" collapsed="1">
+    <row r="38" spans="1:21" collapsed="1">
       <c r="A38" s="20" t="s">
         <v>128</v>
       </c>
@@ -13891,11 +13934,12 @@
       <c r="S38" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T38" s="23" t="s">
+      <c r="T38" s="22"/>
+      <c r="U38" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:20" collapsed="1">
+    <row r="39" spans="1:21" collapsed="1">
       <c r="A39" s="20" t="s">
         <v>130</v>
       </c>
@@ -13950,11 +13994,12 @@
       <c r="S39" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="T39" s="22"/>
+      <c r="U39" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:20" collapsed="1">
+    <row r="40" spans="1:21" collapsed="1">
       <c r="A40" s="20" t="s">
         <v>132</v>
       </c>
@@ -14009,11 +14054,12 @@
       <c r="S40" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T40" s="23" t="s">
+      <c r="T40" s="22"/>
+      <c r="U40" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:20" collapsed="1">
+    <row r="41" spans="1:21" collapsed="1">
       <c r="A41" s="20" t="s">
         <v>134</v>
       </c>
@@ -14068,11 +14114,12 @@
       <c r="S41" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="T41" s="22"/>
+      <c r="U41" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:20" collapsed="1">
+    <row r="42" spans="1:21" collapsed="1">
       <c r="A42" s="20" t="s">
         <v>136</v>
       </c>
@@ -14127,11 +14174,12 @@
       <c r="S42" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T42" s="23" t="s">
+      <c r="T42" s="22"/>
+      <c r="U42" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:20" collapsed="1">
+    <row r="43" spans="1:21" collapsed="1">
       <c r="A43" s="20" t="s">
         <v>138</v>
       </c>
@@ -14186,11 +14234,12 @@
       <c r="S43" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T43" s="23" t="s">
+      <c r="T43" s="22"/>
+      <c r="U43" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:20" collapsed="1">
+    <row r="44" spans="1:21" collapsed="1">
       <c r="A44" s="20" t="s">
         <v>140</v>
       </c>
@@ -14245,11 +14294,12 @@
       <c r="S44" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T44" s="23" t="s">
+      <c r="T44" s="22"/>
+      <c r="U44" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:20" collapsed="1">
+    <row r="45" spans="1:21" collapsed="1">
       <c r="A45" s="20" t="s">
         <v>142</v>
       </c>
@@ -14304,11 +14354,12 @@
       <c r="S45" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T45" s="23" t="s">
+      <c r="T45" s="22"/>
+      <c r="U45" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:20" collapsed="1">
+    <row r="46" spans="1:21" collapsed="1">
       <c r="A46" s="20" t="s">
         <v>144</v>
       </c>
@@ -14363,11 +14414,12 @@
       <c r="S46" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T46" s="23" t="s">
+      <c r="T46" s="22"/>
+      <c r="U46" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:20" collapsed="1">
+    <row r="47" spans="1:21" collapsed="1">
       <c r="A47" s="20" t="s">
         <v>146</v>
       </c>
@@ -14422,11 +14474,12 @@
       <c r="S47" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T47" s="23" t="s">
+      <c r="T47" s="22"/>
+      <c r="U47" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:20" collapsed="1">
+    <row r="48" spans="1:21" collapsed="1">
       <c r="A48" s="20" t="s">
         <v>148</v>
       </c>
@@ -14481,11 +14534,12 @@
       <c r="S48" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T48" s="23" t="s">
+      <c r="T48" s="22"/>
+      <c r="U48" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:20" collapsed="1">
+    <row r="49" spans="1:21" collapsed="1">
       <c r="A49" s="20" t="s">
         <v>150</v>
       </c>
@@ -14540,11 +14594,12 @@
       <c r="S49" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T49" s="23" t="s">
+      <c r="T49" s="22"/>
+      <c r="U49" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:20" collapsed="1">
+    <row r="50" spans="1:21" collapsed="1">
       <c r="A50" s="20" t="s">
         <v>152</v>
       </c>
@@ -14599,11 +14654,12 @@
       <c r="S50" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T50" s="23" t="s">
+      <c r="T50" s="22"/>
+      <c r="U50" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:20" collapsed="1">
+    <row r="51" spans="1:21" collapsed="1">
       <c r="A51" s="20" t="s">
         <v>154</v>
       </c>
@@ -14658,11 +14714,12 @@
       <c r="S51" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T51" s="23" t="s">
+      <c r="T51" s="22"/>
+      <c r="U51" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:20" collapsed="1">
+    <row r="52" spans="1:21" collapsed="1">
       <c r="A52" s="20" t="s">
         <v>156</v>
       </c>
@@ -14717,11 +14774,12 @@
       <c r="S52" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T52" s="23" t="s">
+      <c r="T52" s="22"/>
+      <c r="U52" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:20" collapsed="1">
+    <row r="53" spans="1:21" collapsed="1">
       <c r="A53" s="20" t="s">
         <v>158</v>
       </c>
@@ -14776,11 +14834,12 @@
       <c r="S53" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T53" s="23" t="s">
+      <c r="T53" s="22"/>
+      <c r="U53" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:20" collapsed="1">
+    <row r="54" spans="1:21" collapsed="1">
       <c r="A54" s="20" t="s">
         <v>160</v>
       </c>
@@ -14835,11 +14894,12 @@
       <c r="S54" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T54" s="23" t="s">
+      <c r="T54" s="22"/>
+      <c r="U54" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:20" collapsed="1">
+    <row r="55" spans="1:21" collapsed="1">
       <c r="A55" s="20" t="s">
         <v>162</v>
       </c>
@@ -14894,11 +14954,12 @@
       <c r="S55" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T55" s="23" t="s">
+      <c r="T55" s="22"/>
+      <c r="U55" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:20" collapsed="1">
+    <row r="56" spans="1:21" collapsed="1">
       <c r="A56" s="20" t="s">
         <v>164</v>
       </c>
@@ -14953,11 +15014,12 @@
       <c r="S56" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T56" s="23" t="s">
+      <c r="T56" s="22"/>
+      <c r="U56" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:20" collapsed="1">
+    <row r="57" spans="1:21" collapsed="1">
       <c r="A57" s="20" t="s">
         <v>166</v>
       </c>
@@ -15015,11 +15077,12 @@
       <c r="S57" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T57" s="23" t="s">
+      <c r="T57" s="22"/>
+      <c r="U57" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:20" collapsed="1">
+    <row r="58" spans="1:21" collapsed="1">
       <c r="A58" s="20" t="s">
         <v>168</v>
       </c>
@@ -15077,11 +15140,12 @@
       <c r="S58" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T58" s="23" t="s">
+      <c r="T58" s="22"/>
+      <c r="U58" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:20" collapsed="1">
+    <row r="59" spans="1:21" collapsed="1">
       <c r="A59" s="20" t="s">
         <v>169</v>
       </c>
@@ -15139,11 +15203,12 @@
       <c r="S59" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T59" s="23" t="s">
+      <c r="T59" s="22"/>
+      <c r="U59" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:20" collapsed="1">
+    <row r="60" spans="1:21" collapsed="1">
       <c r="A60" s="20" t="s">
         <v>171</v>
       </c>
@@ -15201,11 +15266,12 @@
       <c r="S60" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T60" s="23" t="s">
+      <c r="T60" s="22"/>
+      <c r="U60" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:20" collapsed="1">
+    <row r="61" spans="1:21" collapsed="1">
       <c r="A61" s="20" t="s">
         <v>173</v>
       </c>
@@ -15263,11 +15329,12 @@
       <c r="S61" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T61" s="23" t="s">
+      <c r="T61" s="22"/>
+      <c r="U61" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:20" collapsed="1">
+    <row r="62" spans="1:21" collapsed="1">
       <c r="A62" s="20" t="s">
         <v>174</v>
       </c>
@@ -15325,11 +15392,12 @@
       <c r="S62" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="T62" s="23" t="s">
+      <c r="T62" s="22"/>
+      <c r="U62" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:20" collapsed="1">
+    <row r="63" spans="1:21" collapsed="1">
       <c r="A63" s="20" t="s">
         <v>178</v>
       </c>
@@ -15384,11 +15452,12 @@
       <c r="S63" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T63" s="23" t="s">
+      <c r="T63" s="22"/>
+      <c r="U63" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:20" collapsed="1">
+    <row r="64" spans="1:21" collapsed="1">
       <c r="A64" s="20" t="s">
         <v>180</v>
       </c>
@@ -15443,11 +15512,12 @@
       <c r="S64" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T64" s="23" t="s">
+      <c r="T64" s="22"/>
+      <c r="U64" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:20" collapsed="1">
+    <row r="65" spans="1:21" collapsed="1">
       <c r="A65" s="20" t="s">
         <v>181</v>
       </c>
@@ -15502,11 +15572,12 @@
       <c r="S65" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T65" s="23" t="s">
+      <c r="T65" s="22"/>
+      <c r="U65" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:20" collapsed="1">
+    <row r="66" spans="1:21" collapsed="1">
       <c r="A66" s="20" t="s">
         <v>183</v>
       </c>
@@ -15561,11 +15632,12 @@
       <c r="S66" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T66" s="23" t="s">
+      <c r="T66" s="22"/>
+      <c r="U66" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:20" collapsed="1">
+    <row r="67" spans="1:21" collapsed="1">
       <c r="A67" s="20" t="s">
         <v>185</v>
       </c>
@@ -15620,11 +15692,12 @@
       <c r="S67" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T67" s="23" t="s">
+      <c r="T67" s="22"/>
+      <c r="U67" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:20" collapsed="1">
+    <row r="68" spans="1:21" collapsed="1">
       <c r="A68" s="20" t="s">
         <v>187</v>
       </c>
@@ -15679,11 +15752,12 @@
       <c r="S68" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T68" s="23" t="s">
+      <c r="T68" s="22"/>
+      <c r="U68" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:20" collapsed="1">
+    <row r="69" spans="1:21" collapsed="1">
       <c r="A69" s="20" t="s">
         <v>189</v>
       </c>
@@ -15738,11 +15812,12 @@
       <c r="S69" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T69" s="23" t="s">
+      <c r="T69" s="22"/>
+      <c r="U69" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:20" collapsed="1">
+    <row r="70" spans="1:21" collapsed="1">
       <c r="A70" s="20" t="s">
         <v>190</v>
       </c>
@@ -15797,11 +15872,12 @@
       <c r="S70" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T70" s="23" t="s">
+      <c r="T70" s="22"/>
+      <c r="U70" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:20" collapsed="1">
+    <row r="71" spans="1:21" collapsed="1">
       <c r="A71" s="20" t="s">
         <v>191</v>
       </c>
@@ -15856,11 +15932,12 @@
       <c r="S71" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T71" s="23" t="s">
+      <c r="T71" s="22"/>
+      <c r="U71" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:20" collapsed="1">
+    <row r="72" spans="1:21" collapsed="1">
       <c r="A72" s="20" t="s">
         <v>192</v>
       </c>
@@ -15915,11 +15992,12 @@
       <c r="S72" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T72" s="23" t="s">
+      <c r="T72" s="22"/>
+      <c r="U72" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:20" collapsed="1">
+    <row r="73" spans="1:21" collapsed="1">
       <c r="A73" s="20" t="s">
         <v>193</v>
       </c>
@@ -15974,11 +16052,12 @@
       <c r="S73" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T73" s="23" t="s">
+      <c r="T73" s="22"/>
+      <c r="U73" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:20" collapsed="1">
+    <row r="74" spans="1:21" collapsed="1">
       <c r="A74" s="20" t="s">
         <v>194</v>
       </c>
@@ -16033,11 +16112,12 @@
       <c r="S74" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T74" s="23" t="s">
+      <c r="T74" s="22"/>
+      <c r="U74" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:20" collapsed="1">
+    <row r="75" spans="1:21" collapsed="1">
       <c r="A75" s="20" t="s">
         <v>195</v>
       </c>
@@ -16092,11 +16172,12 @@
       <c r="S75" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T75" s="23" t="s">
+      <c r="T75" s="22"/>
+      <c r="U75" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:20" collapsed="1">
+    <row r="76" spans="1:21" collapsed="1">
       <c r="A76" s="20" t="s">
         <v>197</v>
       </c>
@@ -16151,11 +16232,12 @@
       <c r="S76" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T76" s="23" t="s">
+      <c r="T76" s="22"/>
+      <c r="U76" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:20" collapsed="1">
+    <row r="77" spans="1:21" collapsed="1">
       <c r="A77" s="20" t="s">
         <v>199</v>
       </c>
@@ -16210,11 +16292,12 @@
       <c r="S77" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T77" s="23" t="s">
+      <c r="T77" s="22"/>
+      <c r="U77" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:20" collapsed="1">
+    <row r="78" spans="1:21" collapsed="1">
       <c r="A78" s="20" t="s">
         <v>201</v>
       </c>
@@ -16269,11 +16352,12 @@
       <c r="S78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T78" s="23" t="s">
+      <c r="T78" s="22"/>
+      <c r="U78" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:20" collapsed="1">
+    <row r="79" spans="1:21" collapsed="1">
       <c r="A79" s="20" t="s">
         <v>203</v>
       </c>
@@ -16328,11 +16412,12 @@
       <c r="S79" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T79" s="23" t="s">
+      <c r="T79" s="22"/>
+      <c r="U79" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:20" collapsed="1">
+    <row r="80" spans="1:21" collapsed="1">
       <c r="A80" s="20" t="s">
         <v>205</v>
       </c>
@@ -16387,11 +16472,12 @@
       <c r="S80" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T80" s="23" t="s">
+      <c r="T80" s="22"/>
+      <c r="U80" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:20" collapsed="1">
+    <row r="81" spans="1:21" collapsed="1">
       <c r="A81" s="20" t="s">
         <v>207</v>
       </c>
@@ -16446,12 +16532,13 @@
       <c r="S81" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="T81" s="23" t="s">
+      <c r="T81" s="22"/>
+      <c r="U81" s="23" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV81">
+  <autoFilter ref="A1:AW81">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
@@ -16463,6 +16550,7 @@
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
     <filterColumn colId="15"/>
+    <filterColumn colId="19"/>
     <sortState ref="A2:AV81">
       <sortCondition ref="C1:C81"/>
     </sortState>
